--- a/data/output/FV2404_FV2310/UTILMD/55143.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55143.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9896" uniqueCount="648">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9917" uniqueCount="648">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2144,6 +2144,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U496" totalsRowShown="0">
+  <autoFilter ref="A1:U496"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2433,7 +2463,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24634,5 +24667,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55143.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55143.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11979" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11867" uniqueCount="1135">
   <si>
     <t>#</t>
   </si>
@@ -16146,44 +16146,42 @@
       <c r="V249" s="11"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2" t="s">
+      <c r="C250" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M250" s="2" t="s">
+      <c r="K250" s="5"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N250" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2" t="s">
+      <c r="N250" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V250" s="2"/>
+      <c r="V250" s="5"/>
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="2" t="s">
@@ -16259,9 +16257,7 @@
         <v>409</v>
       </c>
       <c r="K252" s="2"/>
-      <c r="L252" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L252" s="7"/>
       <c r="M252" s="2" t="s">
         <v>50</v>
       </c>
@@ -18396,46 +18392,44 @@
       <c r="V306" s="2"/>
     </row>
     <row r="307" spans="1:22">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2" t="s">
+      <c r="C307" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="K307" s="2" t="s">
+      <c r="K307" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="L307" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M307" s="2" t="s">
+      <c r="L307" s="7"/>
+      <c r="M307" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N307" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2" t="s">
+      <c r="N307" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="V307" s="2" t="s">
+      <c r="V307" s="5" t="s">
         <v>497</v>
       </c>
     </row>
@@ -18706,44 +18700,42 @@
       </c>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2" t="s">
+      <c r="C313" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M313" s="2" t="s">
+      <c r="K313" s="5"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N313" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2" t="s">
+      <c r="N313" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V313" s="2"/>
+      <c r="V313" s="5"/>
     </row>
     <row r="314" spans="1:22">
       <c r="A314" s="2" t="s">
@@ -18981,9 +18973,7 @@
         <v>409</v>
       </c>
       <c r="K318" s="2"/>
-      <c r="L318" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L318" s="7"/>
       <c r="M318" s="2" t="s">
         <v>71</v>
       </c>
@@ -19037,9 +19027,7 @@
         <v>409</v>
       </c>
       <c r="K319" s="2"/>
-      <c r="L319" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L319" s="7"/>
       <c r="M319" s="2" t="s">
         <v>71</v>
       </c>
@@ -19093,9 +19081,7 @@
         <v>409</v>
       </c>
       <c r="K320" s="2"/>
-      <c r="L320" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L320" s="7"/>
       <c r="M320" s="2" t="s">
         <v>71</v>
       </c>
@@ -19122,46 +19108,44 @@
       <c r="V320" s="2"/>
     </row>
     <row r="321" spans="1:22">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="2" t="s">
+      <c r="C321" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="K321" s="2" t="s">
+      <c r="K321" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="L321" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M321" s="2" t="s">
+      <c r="L321" s="7"/>
+      <c r="M321" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N321" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
-      <c r="T321" s="2"/>
-      <c r="U321" s="2" t="s">
+      <c r="N321" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="V321" s="2" t="s">
+      <c r="V321" s="5" t="s">
         <v>498</v>
       </c>
     </row>
@@ -19594,44 +19578,42 @@
       <c r="V329" s="2"/>
     </row>
     <row r="330" spans="1:22">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-      <c r="J330" s="2" t="s">
+      <c r="C330" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K330" s="2"/>
-      <c r="L330" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M330" s="2" t="s">
+      <c r="K330" s="5"/>
+      <c r="L330" s="7"/>
+      <c r="M330" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N330" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
-      <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
-      <c r="T330" s="2"/>
-      <c r="U330" s="2" t="s">
+      <c r="N330" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O330" s="5"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="5"/>
+      <c r="S330" s="5"/>
+      <c r="T330" s="5"/>
+      <c r="U330" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V330" s="2"/>
+      <c r="V330" s="5"/>
     </row>
     <row r="331" spans="1:22">
       <c r="A331" s="2" t="s">
@@ -19869,9 +19851,7 @@
         <v>409</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L335" s="7"/>
       <c r="M335" s="2" t="s">
         <v>75</v>
       </c>
@@ -19925,9 +19905,7 @@
         <v>409</v>
       </c>
       <c r="K336" s="2"/>
-      <c r="L336" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L336" s="7"/>
       <c r="M336" s="2" t="s">
         <v>75</v>
       </c>
@@ -19981,9 +19959,7 @@
         <v>409</v>
       </c>
       <c r="K337" s="2"/>
-      <c r="L337" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L337" s="7"/>
       <c r="M337" s="2" t="s">
         <v>75</v>
       </c>
@@ -20037,9 +20013,7 @@
         <v>409</v>
       </c>
       <c r="K338" s="2"/>
-      <c r="L338" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L338" s="7"/>
       <c r="M338" s="2" t="s">
         <v>75</v>
       </c>
@@ -20093,9 +20067,7 @@
         <v>409</v>
       </c>
       <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L339" s="7"/>
       <c r="M339" s="2" t="s">
         <v>75</v>
       </c>
@@ -20149,9 +20121,7 @@
         <v>409</v>
       </c>
       <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L340" s="7"/>
       <c r="M340" s="2" t="s">
         <v>75</v>
       </c>
@@ -20263,9 +20233,7 @@
         <v>449</v>
       </c>
       <c r="K342" s="2"/>
-      <c r="L342" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L342" s="7"/>
       <c r="M342" s="2" t="s">
         <v>75</v>
       </c>
@@ -20319,9 +20287,7 @@
         <v>449</v>
       </c>
       <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L343" s="7"/>
       <c r="M343" s="2" t="s">
         <v>75</v>
       </c>
@@ -20375,9 +20341,7 @@
         <v>450</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L344" s="7"/>
       <c r="M344" s="2" t="s">
         <v>75</v>
       </c>
@@ -20433,9 +20397,7 @@
       <c r="K345" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="L345" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L345" s="7"/>
       <c r="M345" s="2" t="s">
         <v>75</v>
       </c>
@@ -20757,9 +20719,7 @@
         <v>409</v>
       </c>
       <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>77</v>
       </c>
@@ -20813,9 +20773,7 @@
         <v>409</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L352" s="7"/>
       <c r="M352" s="2" t="s">
         <v>77</v>
       </c>
@@ -20973,9 +20931,7 @@
         <v>409</v>
       </c>
       <c r="K355" s="2"/>
-      <c r="L355" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L355" s="7"/>
       <c r="M355" s="2" t="s">
         <v>78</v>
       </c>
@@ -21191,9 +21147,7 @@
         <v>409</v>
       </c>
       <c r="K359" s="2"/>
-      <c r="L359" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L359" s="7"/>
       <c r="M359" s="2" t="s">
         <v>79</v>
       </c>
@@ -21220,46 +21174,44 @@
       <c r="V359" s="2"/>
     </row>
     <row r="360" spans="1:22">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2" t="s">
+      <c r="C360" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="K360" s="2" t="s">
+      <c r="K360" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="L360" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M360" s="2" t="s">
+      <c r="L360" s="7"/>
+      <c r="M360" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N360" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O360" s="2"/>
-      <c r="P360" s="2"/>
-      <c r="Q360" s="2"/>
-      <c r="R360" s="2"/>
-      <c r="S360" s="2"/>
-      <c r="T360" s="2"/>
-      <c r="U360" s="2" t="s">
+      <c r="N360" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O360" s="5"/>
+      <c r="P360" s="5"/>
+      <c r="Q360" s="5"/>
+      <c r="R360" s="5"/>
+      <c r="S360" s="5"/>
+      <c r="T360" s="5"/>
+      <c r="U360" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="V360" s="2" t="s">
+      <c r="V360" s="5" t="s">
         <v>502</v>
       </c>
     </row>
@@ -21499,9 +21451,7 @@
         <v>409</v>
       </c>
       <c r="K365" s="2"/>
-      <c r="L365" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L365" s="7"/>
       <c r="M365" s="2" t="s">
         <v>80</v>
       </c>
@@ -21528,46 +21478,44 @@
       <c r="V365" s="2"/>
     </row>
     <row r="366" spans="1:22">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
-      <c r="I366" s="2"/>
-      <c r="J366" s="2" t="s">
+      <c r="C366" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="K366" s="2" t="s">
+      <c r="K366" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L366" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M366" s="2" t="s">
+      <c r="L366" s="7"/>
+      <c r="M366" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N366" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
-      <c r="Q366" s="2"/>
-      <c r="R366" s="2"/>
-      <c r="S366" s="2"/>
-      <c r="T366" s="2"/>
-      <c r="U366" s="2" t="s">
+      <c r="N366" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O366" s="5"/>
+      <c r="P366" s="5"/>
+      <c r="Q366" s="5"/>
+      <c r="R366" s="5"/>
+      <c r="S366" s="5"/>
+      <c r="T366" s="5"/>
+      <c r="U366" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="V366" s="2" t="s">
+      <c r="V366" s="5" t="s">
         <v>503</v>
       </c>
     </row>
@@ -21813,9 +21761,7 @@
       <c r="K371" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L371" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="2" t="s">
         <v>82</v>
       </c>
@@ -22608,46 +22554,44 @@
       <c r="V385" s="2"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="5" t="s">
         <v>1024</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2" t="s">
+      <c r="C386" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K386" s="2" t="s">
+      <c r="K386" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="L386" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M386" s="2" t="s">
+      <c r="L386" s="7"/>
+      <c r="M386" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N386" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
-      <c r="T386" s="2"/>
-      <c r="U386" s="2" t="s">
+      <c r="N386" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="V386" s="2" t="s">
+      <c r="V386" s="5" t="s">
         <v>509</v>
       </c>
     </row>
@@ -22887,9 +22831,7 @@
         <v>409</v>
       </c>
       <c r="K391" s="2"/>
-      <c r="L391" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L391" s="7"/>
       <c r="M391" s="2" t="s">
         <v>56</v>
       </c>
@@ -22943,9 +22885,7 @@
         <v>409</v>
       </c>
       <c r="K392" s="2"/>
-      <c r="L392" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L392" s="7"/>
       <c r="M392" s="2" t="s">
         <v>56</v>
       </c>
@@ -22999,9 +22939,7 @@
         <v>409</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>56</v>
       </c>
@@ -23028,46 +22966,44 @@
       <c r="V393" s="2"/>
     </row>
     <row r="394" spans="1:22">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2" t="s">
+      <c r="C394" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K394" s="2" t="s">
+      <c r="K394" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="L394" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M394" s="2" t="s">
+      <c r="L394" s="7"/>
+      <c r="M394" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N394" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
-      <c r="T394" s="2"/>
-      <c r="U394" s="2" t="s">
+      <c r="N394" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="V394" s="2" t="s">
+      <c r="V394" s="5" t="s">
         <v>510</v>
       </c>
     </row>
@@ -23230,46 +23166,44 @@
       <c r="V397" s="2"/>
     </row>
     <row r="398" spans="1:22">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-      <c r="H398" s="2"/>
-      <c r="I398" s="2"/>
-      <c r="J398" s="2" t="s">
+      <c r="C398" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="K398" s="2" t="s">
+      <c r="K398" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="L398" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M398" s="2" t="s">
+      <c r="L398" s="7"/>
+      <c r="M398" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N398" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O398" s="2"/>
-      <c r="P398" s="2"/>
-      <c r="Q398" s="2"/>
-      <c r="R398" s="2"/>
-      <c r="S398" s="2"/>
-      <c r="T398" s="2"/>
-      <c r="U398" s="2" t="s">
+      <c r="N398" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O398" s="5"/>
+      <c r="P398" s="5"/>
+      <c r="Q398" s="5"/>
+      <c r="R398" s="5"/>
+      <c r="S398" s="5"/>
+      <c r="T398" s="5"/>
+      <c r="U398" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="V398" s="2" t="s">
+      <c r="V398" s="5" t="s">
         <v>491</v>
       </c>
     </row>
@@ -23432,46 +23366,44 @@
       <c r="V401" s="2"/>
     </row>
     <row r="402" spans="1:22">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
-      <c r="I402" s="2"/>
-      <c r="J402" s="2" t="s">
+      <c r="C402" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="K402" s="2" t="s">
+      <c r="K402" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="L402" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M402" s="2" t="s">
+      <c r="L402" s="7"/>
+      <c r="M402" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N402" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O402" s="2"/>
-      <c r="P402" s="2"/>
-      <c r="Q402" s="2"/>
-      <c r="R402" s="2"/>
-      <c r="S402" s="2"/>
-      <c r="T402" s="2"/>
-      <c r="U402" s="2" t="s">
+      <c r="N402" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O402" s="5"/>
+      <c r="P402" s="5"/>
+      <c r="Q402" s="5"/>
+      <c r="R402" s="5"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="V402" s="2" t="s">
+      <c r="V402" s="5" t="s">
         <v>511</v>
       </c>
     </row>
@@ -23792,46 +23724,44 @@
       <c r="V408" s="2"/>
     </row>
     <row r="409" spans="1:22">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2" t="s">
+      <c r="C409" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K409" s="2" t="s">
+      <c r="K409" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="L409" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M409" s="2" t="s">
+      <c r="L409" s="7"/>
+      <c r="M409" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N409" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
-      <c r="R409" s="2"/>
-      <c r="S409" s="2"/>
-      <c r="T409" s="2"/>
-      <c r="U409" s="2" t="s">
+      <c r="N409" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O409" s="5"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="5"/>
+      <c r="R409" s="5"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V409" s="2" t="s">
+      <c r="V409" s="5" t="s">
         <v>512</v>
       </c>
     </row>
@@ -23994,46 +23924,44 @@
       <c r="V412" s="2"/>
     </row>
     <row r="413" spans="1:22">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="J413" s="2" t="s">
+      <c r="C413" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="K413" s="2" t="s">
+      <c r="K413" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="L413" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M413" s="2" t="s">
+      <c r="L413" s="7"/>
+      <c r="M413" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N413" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" s="2"/>
-      <c r="R413" s="2"/>
-      <c r="S413" s="2"/>
-      <c r="T413" s="2"/>
-      <c r="U413" s="2" t="s">
+      <c r="N413" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O413" s="5"/>
+      <c r="P413" s="5"/>
+      <c r="Q413" s="5"/>
+      <c r="R413" s="5"/>
+      <c r="S413" s="5"/>
+      <c r="T413" s="5"/>
+      <c r="U413" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="V413" s="2" t="s">
+      <c r="V413" s="5" t="s">
         <v>513</v>
       </c>
     </row>
@@ -24227,9 +24155,7 @@
         <v>409</v>
       </c>
       <c r="K417" s="2"/>
-      <c r="L417" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L417" s="7"/>
       <c r="M417" s="2" t="s">
         <v>89</v>
       </c>
@@ -24256,46 +24182,44 @@
       <c r="V417" s="2"/>
     </row>
     <row r="418" spans="1:22">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2" t="s">
+      <c r="C418" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="K418" s="2" t="s">
+      <c r="K418" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="L418" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M418" s="2" t="s">
+      <c r="L418" s="7"/>
+      <c r="M418" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N418" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
-      <c r="T418" s="2"/>
-      <c r="U418" s="2" t="s">
+      <c r="N418" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O418" s="5"/>
+      <c r="P418" s="5"/>
+      <c r="Q418" s="5"/>
+      <c r="R418" s="5"/>
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V418" s="2" t="s">
+      <c r="V418" s="5" t="s">
         <v>514</v>
       </c>
     </row>
@@ -24562,44 +24486,42 @@
       <c r="V423" s="2"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="C424" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K424" s="2"/>
-      <c r="L424" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="K424" s="5"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N424" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="N424" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V424" s="2"/>
+      <c r="V424" s="5"/>
     </row>
     <row r="425" spans="1:22">
       <c r="A425" s="2" t="s">
@@ -24999,9 +24921,7 @@
         <v>409</v>
       </c>
       <c r="K432" s="2"/>
-      <c r="L432" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L432" s="7"/>
       <c r="M432" s="2" t="s">
         <v>92</v>
       </c>
@@ -25055,9 +24975,7 @@
         <v>409</v>
       </c>
       <c r="K433" s="2"/>
-      <c r="L433" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L433" s="7"/>
       <c r="M433" s="2" t="s">
         <v>92</v>
       </c>
@@ -25111,9 +25029,7 @@
         <v>409</v>
       </c>
       <c r="K434" s="2"/>
-      <c r="L434" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L434" s="7"/>
       <c r="M434" s="2" t="s">
         <v>92</v>
       </c>
@@ -25198,46 +25114,44 @@
       </c>
     </row>
     <row r="436" spans="1:22">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2" t="s">
+      <c r="C436" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="K436" s="2" t="s">
+      <c r="K436" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="L436" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M436" s="2" t="s">
+      <c r="L436" s="7"/>
+      <c r="M436" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N436" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="2"/>
-      <c r="U436" s="2" t="s">
+      <c r="N436" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O436" s="5"/>
+      <c r="P436" s="5"/>
+      <c r="Q436" s="5"/>
+      <c r="R436" s="5"/>
+      <c r="S436" s="5"/>
+      <c r="T436" s="5"/>
+      <c r="U436" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V436" s="2" t="s">
+      <c r="V436" s="5" t="s">
         <v>517</v>
       </c>
     </row>
@@ -25504,44 +25418,42 @@
       <c r="V441" s="2"/>
     </row>
     <row r="442" spans="1:22">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="2"/>
-      <c r="J442" s="2" t="s">
+      <c r="C442" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K442" s="2"/>
-      <c r="L442" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M442" s="2" t="s">
+      <c r="K442" s="5"/>
+      <c r="L442" s="7"/>
+      <c r="M442" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N442" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O442" s="2"/>
-      <c r="P442" s="2"/>
-      <c r="Q442" s="2"/>
-      <c r="R442" s="2"/>
-      <c r="S442" s="2"/>
-      <c r="T442" s="2"/>
-      <c r="U442" s="2" t="s">
+      <c r="N442" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O442" s="5"/>
+      <c r="P442" s="5"/>
+      <c r="Q442" s="5"/>
+      <c r="R442" s="5"/>
+      <c r="S442" s="5"/>
+      <c r="T442" s="5"/>
+      <c r="U442" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V442" s="2"/>
+      <c r="V442" s="5"/>
     </row>
     <row r="443" spans="1:22">
       <c r="A443" s="2" t="s">
@@ -25937,9 +25849,7 @@
         <v>409</v>
       </c>
       <c r="K450" s="2"/>
-      <c r="L450" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L450" s="7"/>
       <c r="M450" s="2" t="s">
         <v>95</v>
       </c>
@@ -25993,9 +25903,7 @@
         <v>409</v>
       </c>
       <c r="K451" s="2"/>
-      <c r="L451" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L451" s="7"/>
       <c r="M451" s="2" t="s">
         <v>95</v>
       </c>
@@ -26049,9 +25957,7 @@
         <v>409</v>
       </c>
       <c r="K452" s="2"/>
-      <c r="L452" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L452" s="7"/>
       <c r="M452" s="2" t="s">
         <v>95</v>
       </c>
@@ -26105,9 +26011,7 @@
         <v>409</v>
       </c>
       <c r="K453" s="2"/>
-      <c r="L453" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L453" s="7"/>
       <c r="M453" s="2" t="s">
         <v>95</v>
       </c>
@@ -26161,9 +26065,7 @@
         <v>409</v>
       </c>
       <c r="K454" s="2"/>
-      <c r="L454" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L454" s="7"/>
       <c r="M454" s="2" t="s">
         <v>95</v>
       </c>
@@ -26190,46 +26092,44 @@
       <c r="V454" s="2"/>
     </row>
     <row r="455" spans="1:22">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="J455" s="2" t="s">
+      <c r="C455" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="K455" s="2" t="s">
+      <c r="K455" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="L455" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M455" s="2" t="s">
+      <c r="L455" s="7"/>
+      <c r="M455" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N455" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
-      <c r="Q455" s="2"/>
-      <c r="R455" s="2"/>
-      <c r="S455" s="2"/>
-      <c r="T455" s="2"/>
-      <c r="U455" s="2" t="s">
+      <c r="N455" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O455" s="5"/>
+      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V455" s="2" t="s">
+      <c r="V455" s="5" t="s">
         <v>514</v>
       </c>
     </row>
@@ -26496,44 +26396,42 @@
       <c r="V460" s="2"/>
     </row>
     <row r="461" spans="1:22">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C461" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-      <c r="H461" s="2"/>
-      <c r="I461" s="2"/>
-      <c r="J461" s="2" t="s">
+      <c r="C461" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
+      <c r="I461" s="5"/>
+      <c r="J461" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K461" s="2"/>
-      <c r="L461" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M461" s="2" t="s">
+      <c r="K461" s="5"/>
+      <c r="L461" s="7"/>
+      <c r="M461" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N461" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O461" s="2"/>
-      <c r="P461" s="2"/>
-      <c r="Q461" s="2"/>
-      <c r="R461" s="2"/>
-      <c r="S461" s="2"/>
-      <c r="T461" s="2"/>
-      <c r="U461" s="2" t="s">
+      <c r="N461" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O461" s="5"/>
+      <c r="P461" s="5"/>
+      <c r="Q461" s="5"/>
+      <c r="R461" s="5"/>
+      <c r="S461" s="5"/>
+      <c r="T461" s="5"/>
+      <c r="U461" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V461" s="2"/>
+      <c r="V461" s="5"/>
     </row>
     <row r="462" spans="1:22">
       <c r="A462" s="2" t="s">
@@ -26929,9 +26827,7 @@
         <v>409</v>
       </c>
       <c r="K469" s="2"/>
-      <c r="L469" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L469" s="7"/>
       <c r="M469" s="2" t="s">
         <v>98</v>
       </c>
@@ -26958,46 +26854,44 @@
       <c r="V469" s="2"/>
     </row>
     <row r="470" spans="1:22">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="2"/>
-      <c r="J470" s="2" t="s">
+      <c r="C470" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="K470" s="2" t="s">
+      <c r="K470" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L470" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M470" s="2" t="s">
+      <c r="L470" s="7"/>
+      <c r="M470" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N470" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O470" s="2"/>
-      <c r="P470" s="2"/>
-      <c r="Q470" s="2"/>
-      <c r="R470" s="2"/>
-      <c r="S470" s="2"/>
-      <c r="T470" s="2"/>
-      <c r="U470" s="2" t="s">
+      <c r="N470" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O470" s="5"/>
+      <c r="P470" s="5"/>
+      <c r="Q470" s="5"/>
+      <c r="R470" s="5"/>
+      <c r="S470" s="5"/>
+      <c r="T470" s="5"/>
+      <c r="U470" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V470" s="2" t="s">
+      <c r="V470" s="5" t="s">
         <v>518</v>
       </c>
     </row>
@@ -27125,9 +27019,7 @@
         <v>408</v>
       </c>
       <c r="K473" s="2"/>
-      <c r="L473" s="4" t="s">
-        <v>521</v>
-      </c>
+      <c r="L473" s="7"/>
       <c r="M473" s="2" t="s">
         <v>99</v>
       </c>
@@ -27412,46 +27304,44 @@
       </c>
     </row>
     <row r="479" spans="1:22">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="2" t="s">
+      <c r="C479" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="K479" s="2" t="s">
+      <c r="K479" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="L479" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M479" s="2" t="s">
+      <c r="L479" s="7"/>
+      <c r="M479" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N479" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O479" s="2"/>
-      <c r="P479" s="2"/>
-      <c r="Q479" s="2"/>
-      <c r="R479" s="2"/>
-      <c r="S479" s="2"/>
-      <c r="T479" s="2"/>
-      <c r="U479" s="2" t="s">
+      <c r="N479" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O479" s="5"/>
+      <c r="P479" s="5"/>
+      <c r="Q479" s="5"/>
+      <c r="R479" s="5"/>
+      <c r="S479" s="5"/>
+      <c r="T479" s="5"/>
+      <c r="U479" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V479" s="2" t="s">
+      <c r="V479" s="5" t="s">
         <v>520</v>
       </c>
     </row>
@@ -27880,44 +27770,42 @@
       </c>
     </row>
     <row r="488" spans="1:22">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="2" t="s">
+      <c r="C488" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K488" s="2"/>
-      <c r="L488" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="M488" s="2" t="s">
+      <c r="K488" s="5"/>
+      <c r="L488" s="7"/>
+      <c r="M488" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N488" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O488" s="2"/>
-      <c r="P488" s="2"/>
-      <c r="Q488" s="2"/>
-      <c r="R488" s="2"/>
-      <c r="S488" s="2"/>
-      <c r="T488" s="2"/>
-      <c r="U488" s="2" t="s">
+      <c r="N488" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O488" s="5"/>
+      <c r="P488" s="5"/>
+      <c r="Q488" s="5"/>
+      <c r="R488" s="5"/>
+      <c r="S488" s="5"/>
+      <c r="T488" s="5"/>
+      <c r="U488" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="V488" s="2"/>
+      <c r="V488" s="5"/>
     </row>
     <row r="489" spans="1:22">
       <c r="A489" s="2" t="s">
